--- a/data/trans_orig/P07B_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P07B_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>6282</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2107</v>
+        <v>1789</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15130</v>
+        <v>14233</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01140985491832396</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003827017261217903</v>
+        <v>0.003249329720387718</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0274773561753638</v>
+        <v>0.02584891957457362</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -762,19 +762,19 @@
         <v>5184</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1732</v>
+        <v>1967</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14304</v>
+        <v>12456</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01061423919362722</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003547139892638974</v>
+        <v>0.004027495638780526</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02928702051728501</v>
+        <v>0.02550333337426347</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -783,19 +783,19 @@
         <v>11467</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5805</v>
+        <v>5775</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21425</v>
+        <v>22738</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01103586408263353</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005586502721244324</v>
+        <v>0.005558068481050474</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02062065516419364</v>
+        <v>0.02188342591983419</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>32485</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>21889</v>
+        <v>20720</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>48098</v>
+        <v>47171</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.05899667771446286</v>
+        <v>0.05899667771446285</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03975361158157518</v>
+        <v>0.0376302967456166</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08735238612430843</v>
+        <v>0.08566859837701303</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>35</v>
@@ -833,19 +833,19 @@
         <v>24056</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16798</v>
+        <v>16844</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>33677</v>
+        <v>32669</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.04925303822163567</v>
+        <v>0.04925303822163565</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03439390625659045</v>
+        <v>0.03448781820155795</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06895173550514712</v>
+        <v>0.06688929681840067</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>67</v>
@@ -854,19 +854,19 @@
         <v>56540</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>43317</v>
+        <v>43341</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>75029</v>
+        <v>73642</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05441653712212133</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04168984711209398</v>
+        <v>0.04171259188544774</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07221097858297185</v>
+        <v>0.07087571903114913</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>245500</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>219999</v>
+        <v>221717</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>269220</v>
+        <v>269023</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4458631948319551</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3995495103861674</v>
+        <v>0.402669867955013</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4889408357205764</v>
+        <v>0.488583478968491</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>264</v>
@@ -904,19 +904,19 @@
         <v>178381</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>160181</v>
+        <v>161047</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>195443</v>
+        <v>198070</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3652270297918367</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3279633124045372</v>
+        <v>0.3297376475372015</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4001600611223294</v>
+        <v>0.4055395902607806</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>525</v>
@@ -925,19 +925,19 @@
         <v>423881</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>393998</v>
+        <v>394000</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>457471</v>
+        <v>454707</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.4079589832708771</v>
+        <v>0.407958983270877</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3791984716307171</v>
+        <v>0.3791998060564126</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4402874516375611</v>
+        <v>0.4376268150960106</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>185470</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>163867</v>
+        <v>163540</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>210067</v>
+        <v>210377</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3368400168936693</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2976052008533657</v>
+        <v>0.2970110761088759</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3815109775655099</v>
+        <v>0.3820743205032768</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>266</v>
@@ -975,19 +975,19 @@
         <v>194953</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>176429</v>
+        <v>176066</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>215338</v>
+        <v>215439</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3991585532486877</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3612309534834784</v>
+        <v>0.3604882828501013</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4408955501400322</v>
+        <v>0.4411023965805524</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>450</v>
@@ -996,19 +996,19 @@
         <v>380424</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>349401</v>
+        <v>351518</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>414368</v>
+        <v>410379</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3661337585417516</v>
+        <v>0.3661337585417515</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.336276612433923</v>
+        <v>0.3383139725489907</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.398803379079895</v>
+        <v>0.3949635595824658</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>80880</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>62729</v>
+        <v>63990</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>100417</v>
+        <v>103592</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1468902556415889</v>
+        <v>0.1468902556415888</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.113925356826114</v>
+        <v>0.1162143735452228</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1823711909762082</v>
+        <v>0.1881376414232649</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>115</v>
@@ -1046,19 +1046,19 @@
         <v>85837</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>72432</v>
+        <v>72595</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>101362</v>
+        <v>102970</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1757471395442127</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1483018618006013</v>
+        <v>0.1486357705075621</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2075340292701664</v>
+        <v>0.2108265060353751</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>187</v>
@@ -1067,19 +1067,19 @@
         <v>166717</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>144658</v>
+        <v>144273</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>191774</v>
+        <v>189672</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1604548569826166</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1392238587330022</v>
+        <v>0.1388532557075159</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1845708449145874</v>
+        <v>0.1825474334329868</v>
       </c>
     </row>
     <row r="9">
@@ -1174,16 +1174,16 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6069</v>
+        <v>5645</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.003840084787636533</v>
+        <v>0.003840084787636532</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01255939285352206</v>
+        <v>0.01168145262436987</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1192,19 +1192,19 @@
         <v>3736</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1427</v>
+        <v>1448</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7618</v>
+        <v>7890</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.008829773918488259</v>
+        <v>0.008829773918488257</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003371987995009262</v>
+        <v>0.003422006818635736</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01800441443688313</v>
+        <v>0.01864522355527915</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -1213,19 +1213,19 @@
         <v>5592</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2552</v>
+        <v>2467</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10157</v>
+        <v>11397</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.006169581836344666</v>
+        <v>0.006169581836344667</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002816068736165845</v>
+        <v>0.002721442640705478</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01120625468382248</v>
+        <v>0.01257435414751125</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>16685</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>10244</v>
+        <v>9622</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>27481</v>
+        <v>26958</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.03452928206089927</v>
+        <v>0.03452928206089925</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02119999504932406</v>
+        <v>0.01991250982689044</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05687159149230873</v>
+        <v>0.05578983480487405</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>46</v>
@@ -1263,19 +1263,19 @@
         <v>34795</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>26310</v>
+        <v>25496</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>46293</v>
+        <v>45450</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08222960202728785</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06217660778906692</v>
+        <v>0.06025392936121883</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1094015635899784</v>
+        <v>0.1074102268258912</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>64</v>
@@ -1284,19 +1284,19 @@
         <v>51480</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>39078</v>
+        <v>38710</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>66006</v>
+        <v>64542</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.05679875650512548</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04311604563274991</v>
+        <v>0.04270921040767709</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.07282533719493857</v>
+        <v>0.0712103426179828</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>207483</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>184559</v>
+        <v>186272</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>230254</v>
+        <v>232139</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4293820191731385</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3819419129700877</v>
+        <v>0.3854861532894567</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.476507168769971</v>
+        <v>0.4804090022131135</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>249</v>
@@ -1334,19 +1334,19 @@
         <v>176095</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>157740</v>
+        <v>159918</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>195045</v>
+        <v>194012</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4161583776680934</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3727825117089988</v>
+        <v>0.3779286874135633</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4609445266170334</v>
+        <v>0.4585010709666707</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>473</v>
@@ -1355,19 +1355,19 @@
         <v>383577</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>353432</v>
+        <v>355725</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>411745</v>
+        <v>415083</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4232084013281489</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3899492097748469</v>
+        <v>0.3924787318176212</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4542865054350075</v>
+        <v>0.4579700261300537</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>178338</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>155416</v>
+        <v>154765</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>201433</v>
+        <v>200442</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3690685098499867</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3216318498513937</v>
+        <v>0.3202843327385207</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4168618805400967</v>
+        <v>0.4148111404573596</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>220</v>
@@ -1405,19 +1405,19 @@
         <v>152854</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>136304</v>
+        <v>137118</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>169655</v>
+        <v>168983</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3612340926750363</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3221216594933563</v>
+        <v>0.3240473080190284</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4009404775041031</v>
+        <v>0.3993530852444669</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>391</v>
@@ -1426,19 +1426,19 @@
         <v>331192</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>304927</v>
+        <v>301711</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>361116</v>
+        <v>357607</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3654109169200881</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3364318446171634</v>
+        <v>0.3328835329932645</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3984268080914667</v>
+        <v>0.3945550610127092</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>78851</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>62521</v>
+        <v>61825</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>100904</v>
+        <v>98740</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1631801041283391</v>
+        <v>0.163180104128339</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1293868954621949</v>
+        <v>0.1279468770350302</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.208819295494095</v>
+        <v>0.2043406488191687</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>69</v>
@@ -1476,19 +1476,19 @@
         <v>55664</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>44212</v>
+        <v>44246</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>70463</v>
+        <v>69564</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1315481537110942</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1044853385284886</v>
+        <v>0.1045642856738271</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1665225161802364</v>
+        <v>0.164398313693348</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>135</v>
@@ -1497,19 +1497,19 @@
         <v>134514</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>114939</v>
+        <v>113429</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>160840</v>
+        <v>160485</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1484123434102929</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1268144521794778</v>
+        <v>0.125148471731121</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1774576469219247</v>
+        <v>0.1770666446859167</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>2346</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6849</v>
+        <v>7857</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.004974014173774388</v>
+        <v>0.004974014173774386</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001006531648186017</v>
+        <v>0.001016466281100469</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0145216921070598</v>
+        <v>0.01665919354980431</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4798</v>
+        <v>4641</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.007051941845331144</v>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02558987521609792</v>
+        <v>0.02475120220521178</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -1643,19 +1643,19 @@
         <v>3668</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1173</v>
+        <v>1309</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8116</v>
+        <v>8484</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.005565123985273128</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001779163662396676</v>
+        <v>0.001985279155319608</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0123137275098533</v>
+        <v>0.01287131760165523</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>27582</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>18233</v>
+        <v>18176</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>41180</v>
+        <v>41430</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.05848413480695262</v>
+        <v>0.05848413480695261</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03866188624825485</v>
+        <v>0.03854060070422972</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08731815415515408</v>
+        <v>0.08784775053336287</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>31</v>
@@ -1693,19 +1693,19 @@
         <v>18636</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>13130</v>
+        <v>13406</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>25702</v>
+        <v>25903</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.09939507662368822</v>
+        <v>0.09939507662368821</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07002540372338133</v>
+        <v>0.07149860832243772</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1370808586565554</v>
+        <v>0.1381489015064056</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>59</v>
@@ -1714,19 +1714,19 @@
         <v>46218</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>34744</v>
+        <v>35254</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>59472</v>
+        <v>60619</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.07012210442280986</v>
+        <v>0.07012210442280985</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05271328931123718</v>
+        <v>0.0534876864024262</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09023017883980594</v>
+        <v>0.09197070104655856</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>214726</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>190589</v>
+        <v>194679</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>235048</v>
+        <v>237113</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4553021702856984</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4041231767871178</v>
+        <v>0.4127950998252096</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4983928635764889</v>
+        <v>0.502772175461193</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>143</v>
@@ -1764,19 +1764,19 @@
         <v>88198</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>77236</v>
+        <v>76958</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>99904</v>
+        <v>98874</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4703967591778682</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4119325293159497</v>
+        <v>0.410451867915296</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.532832188851781</v>
+        <v>0.5273378845789753</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>382</v>
@@ -1785,19 +1785,19 @@
         <v>302924</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>276372</v>
+        <v>279656</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>328336</v>
+        <v>330281</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4595961405315525</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4193121702147896</v>
+        <v>0.4242940348144176</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4981509841640645</v>
+        <v>0.5011017819729612</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>165177</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>145383</v>
+        <v>144331</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>187354</v>
+        <v>185631</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.3502387119932549</v>
+        <v>0.3502387119932548</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3082681721398077</v>
+        <v>0.3060384068876026</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3972636882771341</v>
+        <v>0.3936101246535159</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>91</v>
@@ -1835,19 +1835,19 @@
         <v>60965</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>50023</v>
+        <v>51335</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>71389</v>
+        <v>71772</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3251518848554018</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2667946168772506</v>
+        <v>0.2737933183758803</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3807492808757719</v>
+        <v>0.3827916870061117</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>253</v>
@@ -1856,19 +1856,19 @@
         <v>226142</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>203495</v>
+        <v>200565</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>249792</v>
+        <v>250048</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3431022414300384</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.308743153937855</v>
+        <v>0.3042964822322227</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3789850280386993</v>
+        <v>0.3793730891010742</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>61782</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>48912</v>
+        <v>46893</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>80847</v>
+        <v>78797</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1310009687403198</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1037129975770315</v>
+        <v>0.09943124630378333</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1714264029746118</v>
+        <v>0.1670796153497306</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>22</v>
@@ -1906,19 +1906,19 @@
         <v>18376</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>12203</v>
+        <v>11616</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>29708</v>
+        <v>29409</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.09800433749771052</v>
+        <v>0.09800433749771054</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06508568400190448</v>
+        <v>0.06195524053627134</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1584466663154073</v>
+        <v>0.1568479072776789</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>78</v>
@@ -1927,19 +1927,19 @@
         <v>80157</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>63497</v>
+        <v>63351</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>99046</v>
+        <v>100380</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1216143896303262</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09633828574585319</v>
+        <v>0.09611652027548719</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1502722078819972</v>
+        <v>0.1522961210997025</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>11059</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6221</v>
+        <v>6013</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>19138</v>
+        <v>19421</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.009770652659923546</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005496738739393858</v>
+        <v>0.005312949584206496</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01690861916771714</v>
+        <v>0.01715836472529009</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -2052,19 +2052,19 @@
         <v>5425</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2737</v>
+        <v>2554</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>9655</v>
+        <v>9524</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.006299385248161505</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.003178330962088916</v>
+        <v>0.0029658889521879</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01121038392386997</v>
+        <v>0.01105829363199993</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>23</v>
@@ -2073,19 +2073,19 @@
         <v>16484</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10755</v>
+        <v>10066</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>26272</v>
+        <v>25699</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.008270695895364517</v>
+        <v>0.008270695895364518</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.005396150494750556</v>
+        <v>0.005050596466297686</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01318156133925863</v>
+        <v>0.01289410253871089</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>61551</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>46733</v>
+        <v>46889</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>78572</v>
+        <v>80100</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.05438091614972637</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04128941778694586</v>
+        <v>0.04142675783193123</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06941944321870677</v>
+        <v>0.07076976663881086</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>95</v>
@@ -2123,19 +2123,19 @@
         <v>63216</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>50006</v>
+        <v>51797</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>75229</v>
+        <v>77521</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.07340332412557873</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05806420190502749</v>
+        <v>0.06014477379909569</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.08735240555461493</v>
+        <v>0.09001370926092138</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>160</v>
@@ -2144,19 +2144,19 @@
         <v>124766</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>105918</v>
+        <v>107110</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>146868</v>
+        <v>144389</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.06260061983054936</v>
+        <v>0.06260061983054938</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.05314355696534173</v>
+        <v>0.053741665155258</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.07369000329717464</v>
+        <v>0.07244612915391405</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>475858</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>441218</v>
+        <v>440916</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>515596</v>
+        <v>511854</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4204272225791665</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3898227852745483</v>
+        <v>0.3895560500309478</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4555364583166616</v>
+        <v>0.4522305459229933</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>544</v>
@@ -2194,19 +2194,19 @@
         <v>355814</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>331406</v>
+        <v>331360</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>380986</v>
+        <v>380612</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4131555791465175</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3848134180536353</v>
+        <v>0.3847610932066606</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4423846162293433</v>
+        <v>0.4419496347637837</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1066</v>
@@ -2215,19 +2215,19 @@
         <v>831672</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>789310</v>
+        <v>790678</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>874141</v>
+        <v>874790</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.4172850991232479</v>
+        <v>0.417285099123248</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3960302475075675</v>
+        <v>0.3967168929923797</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4385935846118958</v>
+        <v>0.4389193534387287</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>406566</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>371729</v>
+        <v>374113</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>442504</v>
+        <v>442453</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3592074402303225</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3284279957005965</v>
+        <v>0.3305340861374733</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3909583976387846</v>
+        <v>0.390913790151599</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>445</v>
@@ -2265,19 +2265,19 @@
         <v>320651</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>295322</v>
+        <v>299157</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>343369</v>
+        <v>347192</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3723255853264283</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3429152740705582</v>
+        <v>0.347367836796991</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3987049538370713</v>
+        <v>0.4031444585005931</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>831</v>
@@ -2286,19 +2286,19 @@
         <v>727217</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>681796</v>
+        <v>682175</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>768496</v>
+        <v>768626</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3648758743039114</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3420860251917174</v>
+        <v>0.3422760308900818</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3855872133429562</v>
+        <v>0.3856525866085171</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>176809</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>150391</v>
+        <v>148410</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>212361</v>
+        <v>209106</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1562137683808611</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1328727400030766</v>
+        <v>0.1311222069248436</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1876243758204233</v>
+        <v>0.1847484177161742</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>136</v>
@@ -2336,19 +2336,19 @@
         <v>116105</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>99068</v>
+        <v>97033</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>137950</v>
+        <v>135643</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.134816126153314</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1150334697298915</v>
+        <v>0.1126707296809341</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1601810220219023</v>
+        <v>0.1575023954042215</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>268</v>
@@ -2357,19 +2357,19 @@
         <v>292915</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>258738</v>
+        <v>260365</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>330921</v>
+        <v>330604</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1469677108469268</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1298198664929052</v>
+        <v>0.1306363173286586</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1660371260351549</v>
+        <v>0.165878221865368</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>8631</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4348</v>
+        <v>3973</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>16808</v>
+        <v>15964</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.01519641814294879</v>
+        <v>0.01519641814294878</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.007656134564853617</v>
+        <v>0.006995905422877259</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02959268644784728</v>
+        <v>0.02810745892640704</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>28</v>
@@ -2482,19 +2482,19 @@
         <v>16215</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>10703</v>
+        <v>11029</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>23717</v>
+        <v>23051</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0195161317947186</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01288175263413427</v>
+        <v>0.01327455111546328</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02854554245811917</v>
+        <v>0.0277441095928108</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>38</v>
@@ -2503,19 +2503,19 @@
         <v>24846</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>17349</v>
+        <v>17224</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>34927</v>
+        <v>34334</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0177621882637672</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01240294239540151</v>
+        <v>0.01231296375623082</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02496881397488853</v>
+        <v>0.02454513963786161</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>35045</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>24718</v>
+        <v>24543</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>46857</v>
+        <v>48219</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.06170357512669477</v>
+        <v>0.06170357512669476</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04352049883042167</v>
+        <v>0.04321156003494406</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.08250035395471117</v>
+        <v>0.08489752661849462</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>150</v>
@@ -2553,19 +2553,19 @@
         <v>89382</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>76669</v>
+        <v>76425</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>103701</v>
+        <v>103447</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1075794814220435</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09227744910552711</v>
+        <v>0.09198418684401657</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1248131662400272</v>
+        <v>0.1245077121355795</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>191</v>
@@ -2574,19 +2574,19 @@
         <v>124428</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>105971</v>
+        <v>107118</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>143153</v>
+        <v>143705</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.08895237889632564</v>
+        <v>0.08895237889632562</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07575746864294021</v>
+        <v>0.07657742851345216</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1023385224650259</v>
+        <v>0.1027331251184426</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>250337</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>222492</v>
+        <v>224883</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>275996</v>
+        <v>276258</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.4407627602735357</v>
+        <v>0.4407627602735356</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3917368737104681</v>
+        <v>0.3959459162453257</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4859386664589682</v>
+        <v>0.4864003107881273</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>659</v>
@@ -2624,19 +2624,19 @@
         <v>418324</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>392996</v>
+        <v>394883</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>442752</v>
+        <v>443308</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5034889835166426</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4730046060716933</v>
+        <v>0.4752761505023504</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5328907745677348</v>
+        <v>0.5335599482075317</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>916</v>
@@ -2645,19 +2645,19 @@
         <v>668661</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>633249</v>
+        <v>635610</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>701636</v>
+        <v>702233</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.4780201070245202</v>
+        <v>0.4780201070245201</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4527044894054931</v>
+        <v>0.4543921663568808</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5015934690846443</v>
+        <v>0.5020200648687382</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>196934</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>173139</v>
+        <v>175181</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>223503</v>
+        <v>223302</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.3467365554268361</v>
+        <v>0.346736555426836</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3048422721171815</v>
+        <v>0.3084372655437853</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3935164156172927</v>
+        <v>0.3931618885583427</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>366</v>
@@ -2695,19 +2695,19 @@
         <v>239706</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>217930</v>
+        <v>215907</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>262729</v>
+        <v>262419</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.2885071713617252</v>
+        <v>0.2885071713617253</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2622978391051385</v>
+        <v>0.2598623806134658</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3162166063057962</v>
+        <v>0.3158435740931433</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>546</v>
@@ -2716,19 +2716,19 @@
         <v>436640</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>402370</v>
+        <v>402754</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>473325</v>
+        <v>470341</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.312150185627368</v>
+        <v>0.3121501856273678</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2876506892610181</v>
+        <v>0.2879250424563163</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3383756758219595</v>
+        <v>0.3362424560298707</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>77016</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>59089</v>
+        <v>59469</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>99615</v>
+        <v>101984</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1356006910299848</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1040367786992007</v>
+        <v>0.1047054912788759</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1753890010415962</v>
+        <v>0.1795610826659173</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>87</v>
@@ -2766,19 +2766,19 @@
         <v>67223</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>55073</v>
+        <v>53594</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>83516</v>
+        <v>82434</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.08090823190487006</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.06628514386128183</v>
+        <v>0.06450448887880633</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1005184571252468</v>
+        <v>0.099216870421252</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>146</v>
@@ -2787,19 +2787,19 @@
         <v>144239</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>121925</v>
+        <v>121540</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>171020</v>
+        <v>169019</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.103115140188019</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0871632789045223</v>
+        <v>0.08688795200655318</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1222608869591117</v>
+        <v>0.1208298657074407</v>
       </c>
     </row>
     <row r="33">
@@ -2891,19 +2891,19 @@
         <v>3863</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1211</v>
+        <v>1117</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>10455</v>
+        <v>9707</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01628372022453324</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.005103338271599311</v>
+        <v>0.004710207436538506</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.0440699053893578</v>
+        <v>0.04091917593894138</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>24</v>
@@ -2912,19 +2912,19 @@
         <v>15917</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>10362</v>
+        <v>10303</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>25944</v>
+        <v>24407</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01885308059818764</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01227349279482894</v>
+        <v>0.01220387264361373</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03072932917888168</v>
+        <v>0.02890877161749754</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>28</v>
@@ -2933,19 +2933,19 @@
         <v>19780</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>12980</v>
+        <v>12831</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>29314</v>
+        <v>29598</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01828949423498344</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01200178526479109</v>
+        <v>0.01186354757918898</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02710428670726562</v>
+        <v>0.02736758142754986</v>
       </c>
     </row>
     <row r="35">
@@ -2962,19 +2962,19 @@
         <v>6601</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>2407</v>
+        <v>2431</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>15045</v>
+        <v>15195</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02782524230644108</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01014619720799717</v>
+        <v>0.01024898310623334</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.0634206924066667</v>
+        <v>0.06405232130986833</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>118</v>
@@ -2983,19 +2983,19 @@
         <v>73484</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>60216</v>
+        <v>60090</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>88832</v>
+        <v>88599</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.08703760902272321</v>
+        <v>0.08703760902272323</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.07132261002400028</v>
+        <v>0.07117331455179339</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1052164039975573</v>
+        <v>0.1049402961219732</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>124</v>
@@ -3004,19 +3004,19 @@
         <v>80085</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>67033</v>
+        <v>65992</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>95876</v>
+        <v>95970</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.07404944171208673</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.0619810101366574</v>
+        <v>0.06101878315284948</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.08865007952752793</v>
+        <v>0.08873747072887876</v>
       </c>
     </row>
     <row r="36">
@@ -3033,19 +3033,19 @@
         <v>49870</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>32710</v>
+        <v>32352</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>71511</v>
+        <v>73859</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.2102205666794784</v>
+        <v>0.2102205666794785</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1378856598144394</v>
+        <v>0.1363759135393204</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3014429748754286</v>
+        <v>0.3113408576095026</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>633</v>
@@ -3054,19 +3054,19 @@
         <v>421141</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>391539</v>
+        <v>393246</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>448564</v>
+        <v>448803</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.4988161383636695</v>
+        <v>0.4988161383636696</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.4637543894769913</v>
+        <v>0.4657756740325436</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.5312970958151135</v>
+        <v>0.5315798845692163</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>659</v>
@@ -3075,19 +3075,19 @@
         <v>471011</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>436093</v>
+        <v>436140</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>508990</v>
+        <v>508523</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.435513018120169</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.4032262981630241</v>
+        <v>0.4032698089230077</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4706299151896824</v>
+        <v>0.470197874538514</v>
       </c>
     </row>
     <row r="37">
@@ -3104,19 +3104,19 @@
         <v>84367</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>64441</v>
+        <v>63275</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>111323</v>
+        <v>106756</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3556388346995742</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2716419757075648</v>
+        <v>0.266727912288736</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4692641788147218</v>
+        <v>0.4500161567753173</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>301</v>
@@ -3125,19 +3125,19 @@
         <v>236602</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>211390</v>
+        <v>211841</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>265135</v>
+        <v>264739</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.2802413519647969</v>
+        <v>0.280241351964797</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.250378963938281</v>
+        <v>0.250913339149386</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3140358611046504</v>
+        <v>0.3135678298970645</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>341</v>
@@ -3146,19 +3146,19 @@
         <v>320970</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>290362</v>
+        <v>286731</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>357624</v>
+        <v>355144</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2967797066171678</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2684789961913884</v>
+        <v>0.2651214596242358</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3306717286089332</v>
+        <v>0.3283781308206818</v>
       </c>
     </row>
     <row r="38">
@@ -3175,19 +3175,19 @@
         <v>92526</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>66260</v>
+        <v>71302</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>115762</v>
+        <v>120343</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.390031636089973</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2793111197449</v>
+        <v>0.300563424111356</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.4879791401340749</v>
+        <v>0.5072875319179082</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>83</v>
@@ -3196,19 +3196,19 @@
         <v>97136</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>75615</v>
+        <v>76472</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>119339</v>
+        <v>122306</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1150518200506226</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.08956105494899322</v>
+        <v>0.09057644230310687</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.14135018763333</v>
+        <v>0.1448643428638471</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>119</v>
@@ -3217,19 +3217,19 @@
         <v>189662</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>154188</v>
+        <v>156559</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>227175</v>
+        <v>227044</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1753683393155931</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1425678446540996</v>
+        <v>0.1447594557880796</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2100540964681417</v>
+        <v>0.2099329422010279</v>
       </c>
     </row>
     <row r="39">
@@ -3321,19 +3321,19 @@
         <v>34037</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>24368</v>
+        <v>23580</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>48107</v>
+        <v>46955</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.00988726066445572</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.007078523358178302</v>
+        <v>0.006849714004960376</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01397440509127004</v>
+        <v>0.01363996611708726</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>76</v>
@@ -3342,19 +3342,19 @@
         <v>47800</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>36971</v>
+        <v>37084</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>62348</v>
+        <v>62345</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01314849816399209</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01016967470563034</v>
+        <v>0.01020080443827068</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01715023969064049</v>
+        <v>0.0171495253064589</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>113</v>
@@ -3363,19 +3363,19 @@
         <v>81837</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>67611</v>
+        <v>66331</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>100385</v>
+        <v>98884</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01156232419971655</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.009552430886927379</v>
+        <v>0.00937155560908725</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01418296554250434</v>
+        <v>0.01397091747741462</v>
       </c>
     </row>
     <row r="41">
@@ -3392,19 +3392,19 @@
         <v>179948</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>153353</v>
+        <v>151691</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>209563</v>
+        <v>210192</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.05227294569389475</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.04454742189973775</v>
+        <v>0.04406443149630961</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.06087562383277773</v>
+        <v>0.06105840443454114</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>475</v>
@@ -3413,19 +3413,19 @@
         <v>303569</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>278536</v>
+        <v>277845</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>332570</v>
+        <v>332125</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.08350383389159358</v>
+        <v>0.08350383389159356</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.07661794631799905</v>
+        <v>0.0764277496023037</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.0914813052699715</v>
+        <v>0.09135885840830785</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>665</v>
@@ -3434,19 +3434,19 @@
         <v>483518</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>446987</v>
+        <v>447719</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>526071</v>
+        <v>522659</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.06831401047412324</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.06315276803185706</v>
+        <v>0.06325623037105364</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.0743261312909739</v>
+        <v>0.07384410440554204</v>
       </c>
     </row>
     <row r="42">
@@ -3463,19 +3463,19 @@
         <v>1443774</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1378428</v>
+        <v>1387528</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1504083</v>
+        <v>1508350</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.419399766526261</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.4004176929470589</v>
+        <v>0.4030609284196469</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.4369190173042768</v>
+        <v>0.4381583462873871</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>2492</v>
@@ -3484,19 +3484,19 @@
         <v>1637952</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1587657</v>
+        <v>1582127</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>1690531</v>
+        <v>1692747</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.4505571558777531</v>
+        <v>0.450557155877753</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.436722144754029</v>
+        <v>0.4352009975778703</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.4650200809089332</v>
+        <v>0.4656297558772632</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>4021</v>
@@ -3505,19 +3505,19 @@
         <v>3081726</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>3002001</v>
+        <v>2996943</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>3160337</v>
+        <v>3159407</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.435403080226667</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.4241390507787725</v>
+        <v>0.4234244812310509</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.4465096292981457</v>
+        <v>0.4463782838001509</v>
       </c>
     </row>
     <row r="43">
@@ -3534,19 +3534,19 @@
         <v>1216853</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>1153156</v>
+        <v>1155955</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>1284705</v>
+        <v>1275315</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.3534818345298167</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.3349787726512097</v>
+        <v>0.3357916694266302</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.3731920668852214</v>
+        <v>0.3704643980119677</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>1689</v>
@@ -3555,19 +3555,19 @@
         <v>1205732</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>1152388</v>
+        <v>1152442</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>1255261</v>
+        <v>1256660</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.3316647291118713</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.3169912086854942</v>
+        <v>0.3170062214890496</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.3452888363732014</v>
+        <v>0.3456737895160255</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>2812</v>
@@ -3576,19 +3576,19 @@
         <v>2422584</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>2345918</v>
+        <v>2342123</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>2501887</v>
+        <v>2500407</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.3422759540210413</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.3314441347811349</v>
+        <v>0.3309078676926373</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.3534802382687255</v>
+        <v>0.3532711404263818</v>
       </c>
     </row>
     <row r="44">
@@ -3605,19 +3605,19 @@
         <v>567865</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>506543</v>
+        <v>514854</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>621432</v>
+        <v>621426</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1649581925855719</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1471448908597759</v>
+        <v>0.1495591675312266</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1805189046638365</v>
+        <v>0.1805172096895242</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>512</v>
@@ -3626,19 +3626,19 @@
         <v>440340</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>404356</v>
+        <v>403789</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>481912</v>
+        <v>483686</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1211257829547901</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1112276575590328</v>
+        <v>0.1110717171475923</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1325611463702485</v>
+        <v>0.1330493008804999</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>933</v>
@@ -3647,19 +3647,19 @@
         <v>1008204</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>947511</v>
+        <v>942095</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1088625</v>
+        <v>1080887</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1424446310784518</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1338695535902401</v>
+        <v>0.1331042657899398</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.153806822491079</v>
+        <v>0.1527135813285984</v>
       </c>
     </row>
     <row r="45">
